--- a/Architectural Diagrams/New Database Schema.xlsx
+++ b/Architectural Diagrams/New Database Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanth_Yedithe\Desktop\Ecommers\ecommerce-order-processing-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanth_Yedithe\GitHub\ECommerce-Order-Processing-Engine\Architectural Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CD2542-3823-4F54-99D3-E85B986C1885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B009F1-1DE2-4A40-B0C8-A300CB1C1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A3A2EB5-EA75-454B-9097-F8BB417CF1AD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{1A3A2EB5-EA75-454B-9097-F8BB417CF1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
   <si>
     <t>status</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>lookup_data</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -623,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF7EA0-8AAD-8C43-B9C5-308C7F294B06}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -984,6 +1005,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -998,6 +1023,12 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1012,6 +1043,12 @@
       <c r="E26" t="s">
         <v>30</v>
       </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1026,13 +1063,19 @@
       <c r="E27" t="s">
         <v>63</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -1040,118 +1083,160 @@
       <c r="E28" t="s">
         <v>63</v>
       </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G14:H14"/>
@@ -1160,6 +1245,7 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
